--- a/model_exports/labels/2.0_False_False_7_2.xlsx
+++ b/model_exports/labels/2.0_False_False_7_2.xlsx
@@ -453,33 +453,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,33 +622,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,20 +687,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,37 +817,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,33 +856,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,20 +895,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,20 +986,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1025,50 +1025,50 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,33 +1103,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,46 +1142,46 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,20 +1194,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,63 +1259,63 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,20 +1324,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,20 +1350,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,20 +1389,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,50 +1441,50 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1493,33 +1493,33 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,46 +1532,46 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,50 +1584,50 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,33 +1662,33 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,20 +1714,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,37 +1753,37 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,72 +1883,72 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1987,46 +1987,46 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,37 +2039,37 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,20 +2078,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -2169,14 +2169,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2195,20 +2195,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,33 +2247,33 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2299,37 +2299,37 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2338,20 +2338,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,24 +2364,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,20 +2403,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,24 +2429,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,24 +2455,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,20 +2494,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,37 +2546,37 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,50 +2585,50 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,59 +2637,59 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,76 +2728,76 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,37 +2806,37 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,33 +2845,33 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2897,11 +2897,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2910,24 +2910,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,37 +2988,37 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,20 +3027,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,37 +3053,37 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,33 +3105,33 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,20 +3157,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,11 +3183,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,50 +3209,50 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,24 +3300,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,20 +3378,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,37 +3443,37 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3482,59 +3482,59 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,37 +3547,37 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,24 +3586,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3612,20 +3612,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,37 +3638,37 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,20 +3677,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,20 +3742,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,24 +3781,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,24 +3807,24 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3833,46 +3833,46 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3898,33 +3898,33 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -3963,11 +3963,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,20 +3989,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,20 +4028,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,24 +4067,24 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4093,33 +4093,33 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,33 +4184,33 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,20 +4223,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,20 +4249,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,20 +4288,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,20 +4314,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,33 +4340,33 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,24 +4392,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B305" t="n">
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4418,46 +4418,46 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,46 +4535,46 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,46 +4600,46 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,59 +4665,59 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4756,37 +4756,37 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,72 +4795,72 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,20 +4899,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,37 +4925,37 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4964,11 +4964,11 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4977,24 +4977,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,11 +5003,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,102 +5016,102 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,24 +5120,24 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,33 +5172,33 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,46 +5237,46 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,50 +5315,50 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -5367,20 +5367,20 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,11 +5393,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,33 +5419,33 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,24 +5497,24 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,37 +5549,37 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,46 +5614,46 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,20 +5666,20 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,20 +5692,20 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -5731,11 +5731,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,37 +5757,37 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,33 +5796,33 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,24 +5848,24 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,11 +5887,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5900,59 +5900,59 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,20 +5978,20 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,20 +6043,20 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,63 +6069,63 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,20 +6173,20 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,20 +6212,20 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,20 +6238,20 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,37 +6264,37 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,50 +6303,50 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,20 +6394,20 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,24 +6433,24 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -6459,20 +6459,20 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,7 +6485,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,76 +6511,76 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,11 +6602,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,20 +6615,20 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,33 +6654,33 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,24 +6693,24 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,72 +6719,72 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,24 +6810,24 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,24 +6862,24 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,24 +6927,24 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
         <v>0</v>
@@ -6953,59 +6953,59 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,11 +7031,11 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,11 +7070,11 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
         <v>1</v>
@@ -7083,20 +7083,20 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,7 +7109,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,20 +7122,20 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,20 +7161,20 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,7 +7187,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,24 +7200,24 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,20 +7239,20 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,20 +7265,20 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,46 +7330,46 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,46 +7382,46 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,37 +7460,37 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7499,50 +7499,50 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,33 +7629,33 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,20 +7668,20 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,11 +7694,11 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
         <v>1</v>
@@ -7707,20 +7707,20 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,20 +7733,20 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,11 +7759,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
         <v>1</v>
@@ -7772,50 +7772,50 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,33 +7824,33 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,20 +7863,20 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,33 +7902,33 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,24 +7941,24 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,59 +7980,59 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,20 +8045,20 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,11 +8071,11 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,46 +8136,46 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
         <v>1</v>
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,24 +8214,24 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
         <v>0</v>
@@ -8240,33 +8240,33 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,33 +8357,33 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,11 +8396,11 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,37 +8409,37 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,20 +8474,20 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,33 +8526,33 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,33 +8565,33 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,20 +8643,20 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,46 +8695,46 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B636" t="n">
         <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,76 +8747,76 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B642" t="n">
         <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
         <v>0</v>
@@ -8825,20 +8825,20 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B652" t="n">
         <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,11 +8981,11 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
         <v>0</v>
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,33 +9046,33 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,11 +9124,11 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -9137,20 +9137,20 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,24 +9163,24 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,20 +9189,20 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B674" t="n">
         <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,50 +9215,50 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,24 +9280,24 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,33 +9306,33 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,46 +9371,46 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B688" t="n">
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B689" t="n">
         <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,37 +9462,37 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,20 +9527,20 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B700" t="n">
         <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,24 +9683,24 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B712" t="n">
         <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,11 +9709,11 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,11 +9735,11 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
         <v>1</v>
@@ -9748,20 +9748,20 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B717" t="n">
         <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,46 +9774,46 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,11 +9839,11 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,24 +9852,24 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B725" t="n">
         <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B733" t="n">
